--- a/biology/Botanique/Epidendreae/Epidendreae.xlsx
+++ b/biology/Botanique/Epidendreae/Epidendreae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Epidendreae sont une tribu de la sous-famille des Epidendroideae et de la famille des Orchidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les Genres rattachés à cette sous-tribu sont présents exclusivement sur les deux continents américains. En Amérique du Sud, seul le sud-ouest (Chili, la bordure maritime du Pérou et une grande partie de l'Argentine) ne sont pas colonisés par ces orchidées. Ces espèces sont également présentes dans les iles caraïbes et autour du golfe du Mexique.
 Liste des pays : (du nord au sud)
@@ -549,36 +563,41 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon le NCBI[1]
-Arpophylliinae Dressler (1990).
+          <t>Selon le NCBI[1]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arpophylliinae Dressler (1990).
 Arpophyllum
 Coeliinae Dressler (1990).
-Bothriochilus [2]
+Bothriochilus 
 Coelia
 Laeliinae Benth. (1881).
 Acrorchis
 Alamania
-Amblostoma [3]
+Amblostoma 
 Artorima
 Barkeria
 Brassavola
-Briegeria [4]
+Briegeria 
 Broughtonia
 Cattleya
-Cattleyopsis [5]
+Cattleyopsis 
 Caularthron
 Constantia
 Dimerandra
-Dinema [6]
+Dinema 
 Domingoa
 Encyclia
 Epidendrum
-Euchile [7]
+Euchile 
 Hagsatera
 Helleriella
-Hexadesmia [8]
+Hexadesmia 
 Hexisea
-Hoffmannseggella [9]
+Hoffmannseggella 
 Homalopetalum
 Isabelia
 Isochilus
@@ -589,70 +608,105 @@
 Leptotes
 Loefgrenianthus
 Meiracyllium
-Microepidendrum [10]
+Microepidendrum 
 Myrmecophila
 Nageliella
 Neocogniauxia
-Neolauchea [11]
-Nidema[12]
+Neolauchea 
+Nidema
 Oerstedella
-Oestlundia [13]
+Oestlundia 
 Orleanesia
 Ponera
 Prosthechea
 Pseudolaelia
 Psychilis
 Quisqueya
-Renata [14]
+Renata 
 Rhyncholaelia
 Scaphyglottis
 Schomburgkia
-Sophronitella [15]
+Sophronitella 
 Sophronitis
-Tetragamestus [16]
+Tetragamestus 
 Tetramicra
 Pleurothallidinae Lindl. (1839).
-Acianthera [17]
+Acianthera 
 Acostaea
 Barbosella
 Barbrodria
 Brachionidium
 Condylago
 Dilomilis
-Diodonopsis [18]
+Diodonopsis 
 Dracula
 Dresslerella
 Dryadella
-Echinosepala [19]
+Echinosepala 
 Frondaria
 Lepanthes
 Lepanthopsis
-Luerella [20]
+Luerella 
 Masdevallia
 Myoxanthus
 Octomeria
 Ophidion
 Platystele
 Pleurothallis
-Pleurothallopsis [21]
+Pleurothallopsis 
 Porroglossum
 Restrepia
 Restrepiella
 Restrepiopsis
 Salpistele
 Scaphosepalum
-Specklinia [22]
+Specklinia 
 Stelis
 Trichosalpinx
 Trisetella
 Zootrophion
 Polystachyinae Ridl. (1907).
-Neobenthamia [23]
-Polystachya [24]
+Neobenthamia 
+Polystachya 
 Epidendreae incertae sedis
-Acanthephippium [25]
-Calanthe [26]
-Selon le GRIN[27]
+Acanthephippium 
+Calanthe </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Epidendreae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Epidendreae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon le GRIN[27]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acostaea Schltr.
 Acrorchis Dressler
 Alamania Lex.
@@ -662,15 +716,15 @@
 Barbosella Schltr.
 Barbrodria Luer
 Barkeria Knowles &amp; Westc.
-Basiphyllaea Schltr. (tribu Calypsoeae selon NCBI)[28]
-Bletia Ruiz &amp; Pav. (tribu Calypsoeae selon NCBI)[29]
+Basiphyllaea Schltr. (tribu Calypsoeae selon NCBI)
+Bletia Ruiz &amp; Pav. (tribu Calypsoeae selon NCBI)
 Brachionidium Lindl.
 Brassavola R. Br.
 Broughtonia R. Br.
 Cattleya Lindl.
 Caularthron Raf.
 Chamelophyton Garay (absent de la base NCBI)
-Chysis Lindl. (tribu Calypsoeae selon NCBI)[30]
+Chysis Lindl. (tribu Calypsoeae selon NCBI)
 Condylago Luer
 Constantia Barb. Rodr.
 Dilomilis Raf.
@@ -681,18 +735,18 @@
 Dresslerella Luer
 Dryadella Luer
 Encyclia Hook.
-Epibator Luer (synonyme Zootrophion selon Kew)[31]
+Epibator Luer (synonyme Zootrophion selon Kew)
 Epidendrum L.
 Frondaria Luer
 Hagsatera R. González
 Helleriella A. D. Hawkes
-Hexalectris Raf. (tribu Calypsoeae selon NCBI)[32]
+Hexalectris Raf. (tribu Calypsoeae selon NCBI)
 Hexisea Lindl.
 Homalopetalum Rolfe
 Isabelia Barb. Rodr.
 Isochilus R. Br.
 Jacquiniella Schltr.
-Jostia Luer (synonyme Masdevallia selon Kew)[33]
+Jostia Luer (synonyme Masdevallia selon Kew)
 Laelia Lindl.
 Lepanthes Sw.
 Lepanthopsis (Cogn.) Ames
@@ -708,8 +762,8 @@
 Oerstedella Rchb. f.
 Ophidion Luer
 Orleanesia Barb. Rodr.
-Pinelia Lindl. (synonyme Homalopetalum selon Kew)[34]
-Platyglottis L. O. Williams (synonyme Scaphyglottis selon Kew)[35]
+Pinelia Lindl. (synonyme Homalopetalum selon Kew)
+Platyglottis L. O. Williams (synonyme Scaphyglottis selon Kew)
 Platystele Schltr.
 Pleurothallis R. Br.
 Ponera Lindl.
@@ -719,7 +773,7 @@
 Psychilis Raf.
 Pygmaeorchis Brade (absent de la base NCBI)
 Quisqueya Dod
-Reichenbachanthus Barb. Rodr. (synonyme Scaphyglottis selon Kew)[36]
+Reichenbachanthus Barb. Rodr. (synonyme Scaphyglottis selon Kew)
 Restrepia Kunth
 Restrepiella Garay &amp; Dunst.
 Restrepiopsis Luer
